--- a/egov/egov_functional_test/src/test/resources/legalCaseTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/legalCaseTestData.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">City Civil Court</t>
   </si>
   <si>
-    <t xml:space="preserve">EXECUTION PETITION</t>
+    <t xml:space="preserve">CIVIL MISCELLANEOUS PETITION</t>
   </si>
   <si>
     <t xml:space="preserve">I Assistant City Civil Court</t>
@@ -162,24 +162,24 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0518518518519"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5222222222222"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6185185185185"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.8740740740741"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2888888888889"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.9518518518519"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.1481481481481"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.9333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.0296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8555555555556"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.362962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4037037037037"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.462962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6777777777778"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.2481481481481"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.637037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3259259259259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.4222222222222"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.21111111111111"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/egov/egov_functional_test/src/test/resources/legalCaseTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/legalCaseTestData.xlsx
@@ -46,13 +46,13 @@
     <t xml:space="preserve">testData1</t>
   </si>
   <si>
-    <t xml:space="preserve">City Civil Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIVIL MISCELLANEOUS PETITION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I Assistant City Civil Court</t>
+    <t xml:space="preserve">High court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contempt Case(CC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High court Hyderabad</t>
   </si>
   <si>
     <t xml:space="preserve">Engineering</t>
@@ -167,19 +167,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.362962962963"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4037037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.462962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6777777777778"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.2481481481481"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8148148148148"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.637037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.3259259259259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.4222222222222"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.6703703703704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.9518518518519"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8925925925926"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8555555555556"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.0703703703704"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6407407407407"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.2074074074074"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1259259259259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.7185185185185"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.8148148148148"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.40740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
